--- a/ServiceNowQAAutomation/SNOWQA/testdata/Change_Management_TestData.xlsx
+++ b/ServiceNowQAAutomation/SNOWQA/testdata/Change_Management_TestData.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
   <si>
     <t>Serial No.</t>
   </si>
@@ -126,44 +126,16 @@
     <t>Failed</t>
   </si>
   <si>
-    <t>CHG0037345</t>
-  </si>
-  <si>
-    <t>2017-08-25 15:36:30</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>CHG0037347</t>
-  </si>
-  <si>
-    <t>CHG0037350</t>
-  </si>
-  <si>
-    <t>CHG0037354</t>
-  </si>
-  <si>
-    <t>CHG0037355</t>
-  </si>
-  <si>
-    <t>CHG0037356</t>
-  </si>
-  <si>
-    <t>CHG0037357</t>
-  </si>
-  <si>
-    <t>CHG0037359</t>
-  </si>
-  <si>
     <t>CHG0037360</t>
+  </si>
+  <si>
+    <t>2017-09-01 15:36:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -576,19 +548,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -652,7 +624,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" t="s">

--- a/ServiceNowQAAutomation/SNOWQA/testdata/Change_Management_TestData.xlsx
+++ b/ServiceNowQAAutomation/SNOWQA/testdata/Change_Management_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15150" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="4800"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke_Suite" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
   <si>
     <t>Serial No.</t>
   </si>
@@ -123,19 +123,35 @@
     <t>Requested End Date</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>CHG0037360</t>
-  </si>
-  <si>
     <t>2017-09-01 15:36:30</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>CHG0030030</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CHG0037650</t>
+  </si>
+  <si>
+    <t>CHG0037652</t>
+  </si>
+  <si>
+    <t>CHG0037653</t>
+  </si>
+  <si>
+    <t>CHG0037654</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -542,25 +558,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -624,11 +640,11 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>8</v>
@@ -658,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -670,7 +686,9 @@
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="6" t="s">
@@ -711,9 +729,13 @@
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>8</v>
       </c>

--- a/ServiceNowQAAutomation/SNOWQA/testdata/Change_Management_TestData.xlsx
+++ b/ServiceNowQAAutomation/SNOWQA/testdata/Change_Management_TestData.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
   <si>
     <t>Serial No.</t>
   </si>
@@ -114,34 +114,7 @@
     <t>Test Ticket !!! Plz Ignore !!!</t>
   </si>
   <si>
-    <t>Requested By Date</t>
-  </si>
-  <si>
-    <t>Requested Start Date</t>
-  </si>
-  <si>
-    <t>Requested End Date</t>
-  </si>
-  <si>
-    <t>2017-09-01 15:36:30</t>
-  </si>
-  <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>CHG0030030</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>CHG0037650</t>
-  </si>
-  <si>
-    <t>CHG0037652</t>
-  </si>
-  <si>
-    <t>CHG0037653</t>
   </si>
   <si>
     <t>CHG0037654</t>
@@ -151,7 +124,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -188,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -218,17 +190,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -239,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -258,10 +219,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,30 +513,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,20 +573,11 @@
       <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" ht="48.75">
+    <row r="2" spans="1:14" ht="48.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -640,11 +585,11 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>8</v>
@@ -673,13 +618,8 @@
       <c r="N2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="48.75">
+    <row r="3" spans="1:14" ht="48.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -687,7 +627,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -718,11 +658,8 @@
       <c r="N3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="48.75">
+    <row r="4" spans="1:14" ht="48.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -730,11 +667,11 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>8</v>
@@ -763,11 +700,8 @@
       <c r="N4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="48.75">
+    <row r="5" spans="1:14" ht="48.75">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -804,11 +738,8 @@
       <c r="N5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="48.75">
+    <row r="6" spans="1:14" ht="48.75">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -845,9 +776,6 @@
       <c r="N6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/ServiceNowQAAutomation/SNOWQA/testdata/Change_Management_TestData.xlsx
+++ b/ServiceNowQAAutomation/SNOWQA/testdata/Change_Management_TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="4800"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14865" windowHeight="6285"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke_Suite" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Smoke_Suite!$A$1:$N$2</definedName>
     <definedName name="AAN" comment="Change Model types present under the Subcategory AAN">#REF!</definedName>
     <definedName name="ABOL" comment="Change Model types present under the Subcategory ABOL">#REF!</definedName>
     <definedName name="Accnet" comment="Change Model types present under the Subcategory Accnet">#REF!</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="295">
   <si>
     <t>Serial No.</t>
   </si>
@@ -72,9 +73,6 @@
     <t>TestCreateChangeTicket</t>
   </si>
   <si>
-    <t>DEVELOP-QA-SERVICE-MANAGER-AG</t>
-  </si>
-  <si>
     <t>Configuration Item</t>
   </si>
   <si>
@@ -96,35 +94,852 @@
     <t>Backout Plan</t>
   </si>
   <si>
-    <t>TestUpdateChangeTicket</t>
-  </si>
-  <si>
-    <t>TestApproveChangeTicket</t>
-  </si>
-  <si>
-    <t>TestCancelChangeTicket</t>
-  </si>
-  <si>
-    <t>TestCloseChangeTicket</t>
+    <t>Test Ticket !!! Plz Ignore !!!</t>
+  </si>
+  <si>
+    <t>SERVICE-MGMT-TECHM-QA</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Amreen Noor</t>
   </si>
   <si>
     <t>beta-000935</t>
   </si>
   <si>
-    <t>Test Ticket !!! Plz Ignore !!!</t>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>CHG0323247</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CHG0323248</t>
+  </si>
+  <si>
+    <t>CHG0323249</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>CHG0037654</t>
+    <t>CHG0323250</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>CHG0323251</t>
+  </si>
+  <si>
+    <t>CHG0323252</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>CHG0323253</t>
+  </si>
+  <si>
+    <t>CHG0323254</t>
+  </si>
+  <si>
+    <t>CHG0323255</t>
+  </si>
+  <si>
+    <t>CHG0323260</t>
+  </si>
+  <si>
+    <t>CHG0323261</t>
+  </si>
+  <si>
+    <t>CHG0323262</t>
+  </si>
+  <si>
+    <t>CHG0323263</t>
+  </si>
+  <si>
+    <t>CHG0323264</t>
+  </si>
+  <si>
+    <t>CHG0323265</t>
+  </si>
+  <si>
+    <t>CHG0323266</t>
+  </si>
+  <si>
+    <t>CHG0323276</t>
+  </si>
+  <si>
+    <t>CHG0323277</t>
+  </si>
+  <si>
+    <t>CHG0323278</t>
+  </si>
+  <si>
+    <t>CHG0323279</t>
+  </si>
+  <si>
+    <t>CHG0323280</t>
+  </si>
+  <si>
+    <t>CHG0323281</t>
+  </si>
+  <si>
+    <t>CHG0323282</t>
+  </si>
+  <si>
+    <t>CHG0323283</t>
+  </si>
+  <si>
+    <t>CHG0323285</t>
+  </si>
+  <si>
+    <t>CHG0323287</t>
+  </si>
+  <si>
+    <t>CHG0323288</t>
+  </si>
+  <si>
+    <t>CHG0323289</t>
+  </si>
+  <si>
+    <t>CHG0323290</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <t>CHG0323294</t>
+  </si>
+  <si>
+    <t>CHG0323295</t>
+  </si>
+  <si>
+    <t>CHG0323296</t>
+  </si>
+  <si>
+    <t>CHG0323297</t>
+  </si>
+  <si>
+    <t>CHG0323298</t>
+  </si>
+  <si>
+    <t>CHG0323299</t>
+  </si>
+  <si>
+    <t>CHG0030001</t>
+  </si>
+  <si>
+    <t>CHG0323301</t>
+  </si>
+  <si>
+    <t>CHG0323302</t>
+  </si>
+  <si>
+    <t>CHG0323303</t>
+  </si>
+  <si>
+    <t>CHG0323304</t>
+  </si>
+  <si>
+    <t>CHG0323305</t>
+  </si>
+  <si>
+    <t>CHG0323306</t>
+  </si>
+  <si>
+    <t>CHG0323307</t>
+  </si>
+  <si>
+    <t>CHG0323308</t>
+  </si>
+  <si>
+    <t>CHG0323309</t>
+  </si>
+  <si>
+    <t>CHG0323316</t>
+  </si>
+  <si>
+    <t>CHG0323342</t>
+  </si>
+  <si>
+    <t>CHG0323343</t>
+  </si>
+  <si>
+    <t>CHG0323344</t>
+  </si>
+  <si>
+    <t>CHG0323346</t>
+  </si>
+  <si>
+    <t>CHG0323349</t>
+  </si>
+  <si>
+    <t>CHG0323352</t>
+  </si>
+  <si>
+    <t>CHG0323354</t>
+  </si>
+  <si>
+    <t>CHG0323356</t>
+  </si>
+  <si>
+    <t>CHG0323357</t>
+  </si>
+  <si>
+    <t>CHG0323358</t>
+  </si>
+  <si>
+    <t>CHG0323361</t>
+  </si>
+  <si>
+    <t>CHG0323362</t>
+  </si>
+  <si>
+    <t>CHG0323363</t>
+  </si>
+  <si>
+    <t>CHG0323364</t>
+  </si>
+  <si>
+    <t>CHG0323365</t>
+  </si>
+  <si>
+    <t>CHG0323366</t>
+  </si>
+  <si>
+    <t>CHG0323367</t>
+  </si>
+  <si>
+    <t>CHG0323368</t>
+  </si>
+  <si>
+    <t>CHG0323369</t>
+  </si>
+  <si>
+    <t>CHG0323370</t>
+  </si>
+  <si>
+    <t>CHG0323371</t>
+  </si>
+  <si>
+    <t>CHG0323372</t>
+  </si>
+  <si>
+    <t>CHG0323376</t>
+  </si>
+  <si>
+    <t>CHG0323377</t>
+  </si>
+  <si>
+    <t>CHG0323378</t>
+  </si>
+  <si>
+    <t>CHG0323379</t>
+  </si>
+  <si>
+    <t>CHG0323380</t>
+  </si>
+  <si>
+    <t>CHG0323381</t>
+  </si>
+  <si>
+    <t>CHG0323383</t>
+  </si>
+  <si>
+    <t>CHG0323384</t>
+  </si>
+  <si>
+    <t>CHG0323385</t>
+  </si>
+  <si>
+    <t>CHG0323386</t>
+  </si>
+  <si>
+    <t>CHG0323387</t>
+  </si>
+  <si>
+    <t>CHG0323388</t>
+  </si>
+  <si>
+    <t>CHG0323389</t>
+  </si>
+  <si>
+    <t>CHG0323390</t>
+  </si>
+  <si>
+    <t>CHG0323391</t>
+  </si>
+  <si>
+    <t>CHG0323392</t>
+  </si>
+  <si>
+    <t>CHG0323393</t>
+  </si>
+  <si>
+    <t>CHG0323394</t>
+  </si>
+  <si>
+    <t>CHG0323395</t>
+  </si>
+  <si>
+    <t>CHG0323396</t>
+  </si>
+  <si>
+    <t>CHG0323397</t>
+  </si>
+  <si>
+    <t>CHG0323398</t>
+  </si>
+  <si>
+    <t>CHG0323399</t>
+  </si>
+  <si>
+    <t>CHG0323400</t>
+  </si>
+  <si>
+    <t>CHG0323401</t>
+  </si>
+  <si>
+    <t>CHG0323402</t>
+  </si>
+  <si>
+    <t>CHG0323405</t>
+  </si>
+  <si>
+    <t>CHG0323406</t>
+  </si>
+  <si>
+    <t>CHG0323409</t>
+  </si>
+  <si>
+    <t>CHG0323422</t>
+  </si>
+  <si>
+    <t>CHG0323425</t>
+  </si>
+  <si>
+    <t>CHG0323426</t>
+  </si>
+  <si>
+    <t>CHG0323428</t>
+  </si>
+  <si>
+    <t>CHG0323433</t>
+  </si>
+  <si>
+    <t>CHG0323434</t>
+  </si>
+  <si>
+    <t>CHG0323435</t>
+  </si>
+  <si>
+    <t>CHG0323436</t>
+  </si>
+  <si>
+    <t>CHG0323439</t>
+  </si>
+  <si>
+    <t>CHG0323447</t>
+  </si>
+  <si>
+    <t>CHG0323454</t>
+  </si>
+  <si>
+    <t>CHG0323455</t>
+  </si>
+  <si>
+    <t>CHG0323456</t>
+  </si>
+  <si>
+    <t>CHG0323457</t>
+  </si>
+  <si>
+    <t>CHG0323458</t>
+  </si>
+  <si>
+    <t>CHG0323459</t>
+  </si>
+  <si>
+    <t>CHG0323460</t>
+  </si>
+  <si>
+    <t>CHG0323461</t>
+  </si>
+  <si>
+    <t>CHG0323462</t>
+  </si>
+  <si>
+    <t>CHG0323463</t>
+  </si>
+  <si>
+    <t>CHG0323464</t>
+  </si>
+  <si>
+    <t>CHG0323466</t>
+  </si>
+  <si>
+    <t>CHG0323467</t>
+  </si>
+  <si>
+    <t>CHG0323468</t>
+  </si>
+  <si>
+    <t>CHG0323470</t>
+  </si>
+  <si>
+    <t>CHG0323471</t>
+  </si>
+  <si>
+    <t>CHG0323472</t>
+  </si>
+  <si>
+    <t>CHG0323474</t>
+  </si>
+  <si>
+    <t>CHG0323475</t>
+  </si>
+  <si>
+    <t>CHG0323476</t>
+  </si>
+  <si>
+    <t>CHG0323482</t>
+  </si>
+  <si>
+    <t>CHG0323483</t>
+  </si>
+  <si>
+    <t>CHG0323484</t>
+  </si>
+  <si>
+    <t>CHG0323485</t>
+  </si>
+  <si>
+    <t>CHG0323486</t>
+  </si>
+  <si>
+    <t>CHG0323487</t>
+  </si>
+  <si>
+    <t>CHG0323488</t>
+  </si>
+  <si>
+    <t>CHG0323507</t>
+  </si>
+  <si>
+    <t>CHG0323512</t>
+  </si>
+  <si>
+    <t>CHG0323514</t>
+  </si>
+  <si>
+    <t>CHG0323515</t>
+  </si>
+  <si>
+    <t>CHG0323516</t>
+  </si>
+  <si>
+    <t>CHG0323517</t>
+  </si>
+  <si>
+    <t>CHG0323518</t>
+  </si>
+  <si>
+    <t>CHG0323519</t>
+  </si>
+  <si>
+    <t>CHG0323520</t>
+  </si>
+  <si>
+    <t>CHG0323521</t>
+  </si>
+  <si>
+    <t>CHG0323522</t>
+  </si>
+  <si>
+    <t>CHG0323535</t>
+  </si>
+  <si>
+    <t>CHG0323536</t>
+  </si>
+  <si>
+    <t>CHG0323537</t>
+  </si>
+  <si>
+    <t>CHG0323538</t>
+  </si>
+  <si>
+    <t>CHG0323539</t>
+  </si>
+  <si>
+    <t>CHG0323540</t>
+  </si>
+  <si>
+    <t>CHG0323541</t>
+  </si>
+  <si>
+    <t>CHG0323542</t>
+  </si>
+  <si>
+    <t>CHG0323543</t>
+  </si>
+  <si>
+    <t>CHG0323544</t>
+  </si>
+  <si>
+    <t>CHG0323545</t>
+  </si>
+  <si>
+    <t>CHG0323546</t>
+  </si>
+  <si>
+    <t>CHG0323547</t>
+  </si>
+  <si>
+    <t>CHG0323548</t>
+  </si>
+  <si>
+    <t>CHG0323550</t>
+  </si>
+  <si>
+    <t>CHG0323552</t>
+  </si>
+  <si>
+    <t>CHG0323553</t>
+  </si>
+  <si>
+    <t>CHG0323554</t>
+  </si>
+  <si>
+    <t>CHG0323555</t>
+  </si>
+  <si>
+    <t>CHG0323559</t>
+  </si>
+  <si>
+    <t>CHG0323560</t>
+  </si>
+  <si>
+    <t>CHG0323561</t>
+  </si>
+  <si>
+    <t>CHG0323562</t>
+  </si>
+  <si>
+    <t>CHG0323563</t>
+  </si>
+  <si>
+    <t>CHG0323564</t>
+  </si>
+  <si>
+    <t>CHG0323565</t>
+  </si>
+  <si>
+    <t>CHG0323566</t>
+  </si>
+  <si>
+    <t>CHG0323690</t>
+  </si>
+  <si>
+    <t>CHG0323691</t>
+  </si>
+  <si>
+    <t>CHG0323692</t>
+  </si>
+  <si>
+    <t>CHG0323694</t>
+  </si>
+  <si>
+    <t>CHG0323696</t>
+  </si>
+  <si>
+    <t>CHG0323697</t>
+  </si>
+  <si>
+    <t>CHG0323698</t>
+  </si>
+  <si>
+    <t>CHG0323699</t>
+  </si>
+  <si>
+    <t>CHG0323718</t>
+  </si>
+  <si>
+    <t>CHG0323719</t>
+  </si>
+  <si>
+    <t>CHG0323720</t>
+  </si>
+  <si>
+    <t>CHG0323721</t>
+  </si>
+  <si>
+    <t>CHG0323722</t>
+  </si>
+  <si>
+    <t>CHG0323723</t>
+  </si>
+  <si>
+    <t>CHG0323724</t>
+  </si>
+  <si>
+    <t>CHG0323725</t>
+  </si>
+  <si>
+    <t>CHG0323726</t>
+  </si>
+  <si>
+    <t>CHG0323727</t>
+  </si>
+  <si>
+    <t>CHG0323728</t>
+  </si>
+  <si>
+    <t>CHG0323729</t>
+  </si>
+  <si>
+    <t>CHG0323730</t>
+  </si>
+  <si>
+    <t>CHG0323733</t>
+  </si>
+  <si>
+    <t>CHG0323734</t>
+  </si>
+  <si>
+    <t>CHG0323735</t>
+  </si>
+  <si>
+    <t>CHG0323736</t>
+  </si>
+  <si>
+    <t>CHG0323737</t>
+  </si>
+  <si>
+    <t>CHG0323738</t>
+  </si>
+  <si>
+    <t>CHG0323739</t>
+  </si>
+  <si>
+    <t>CHG0323818</t>
+  </si>
+  <si>
+    <t>CHG0323820</t>
+  </si>
+  <si>
+    <t>CHG0323837</t>
+  </si>
+  <si>
+    <t>CHG0323838</t>
+  </si>
+  <si>
+    <t>CHG0323839</t>
+  </si>
+  <si>
+    <t>CHG0323840</t>
+  </si>
+  <si>
+    <t>CHG0323841</t>
+  </si>
+  <si>
+    <t>CHG0323842</t>
+  </si>
+  <si>
+    <t>CHG0323843</t>
+  </si>
+  <si>
+    <t>CHG0323844</t>
+  </si>
+  <si>
+    <t>CHG0323845</t>
+  </si>
+  <si>
+    <t>CHG0323846</t>
+  </si>
+  <si>
+    <t>CHG0323847</t>
+  </si>
+  <si>
+    <t>CHG0323848</t>
+  </si>
+  <si>
+    <t>CHG0323849</t>
+  </si>
+  <si>
+    <t>CHG0323850</t>
+  </si>
+  <si>
+    <t>CHG0323851</t>
+  </si>
+  <si>
+    <t>CHG0323852</t>
+  </si>
+  <si>
+    <t>CHG0323855</t>
+  </si>
+  <si>
+    <t>CHG0323856</t>
+  </si>
+  <si>
+    <t>CHG0323858</t>
+  </si>
+  <si>
+    <t>CHG0323859</t>
+  </si>
+  <si>
+    <t>CHG0323860</t>
+  </si>
+  <si>
+    <t>CHG0324020</t>
+  </si>
+  <si>
+    <t>CHG0324022</t>
+  </si>
+  <si>
+    <t>CHG0324023</t>
+  </si>
+  <si>
+    <t>CHG0324024</t>
+  </si>
+  <si>
+    <t>CHG0324025</t>
+  </si>
+  <si>
+    <t>CHG0324026</t>
+  </si>
+  <si>
+    <t>CHG0324027</t>
+  </si>
+  <si>
+    <t>CHG0324028</t>
+  </si>
+  <si>
+    <t>CHG0324030</t>
+  </si>
+  <si>
+    <t>CHG0324031</t>
+  </si>
+  <si>
+    <t>CHG0324032</t>
+  </si>
+  <si>
+    <t>CHG0324037</t>
+  </si>
+  <si>
+    <t>CHG0324038</t>
+  </si>
+  <si>
+    <t>CHG0324039</t>
+  </si>
+  <si>
+    <t>CHG0324040</t>
+  </si>
+  <si>
+    <t>CHG0324041</t>
+  </si>
+  <si>
+    <t>CHG0324042</t>
+  </si>
+  <si>
+    <t>CHG0324043</t>
+  </si>
+  <si>
+    <t>CHG0324044</t>
+  </si>
+  <si>
+    <t>CHG0324045</t>
+  </si>
+  <si>
+    <t>CHG0324062</t>
+  </si>
+  <si>
+    <t>CHG0324441</t>
+  </si>
+  <si>
+    <t>CHG0324449</t>
+  </si>
+  <si>
+    <t>CHG0324450</t>
+  </si>
+  <si>
+    <t>CHG0324451</t>
+  </si>
+  <si>
+    <t>CHG0324452</t>
+  </si>
+  <si>
+    <t>CHG0324453</t>
+  </si>
+  <si>
+    <t>CHG0324454</t>
+  </si>
+  <si>
+    <t>CHG0324455</t>
+  </si>
+  <si>
+    <t>CHG0324456</t>
+  </si>
+  <si>
+    <t>CHG0324457</t>
+  </si>
+  <si>
+    <t>CHG0324458</t>
+  </si>
+  <si>
+    <t>CHG0324467</t>
+  </si>
+  <si>
+    <t>CHG0324468</t>
+  </si>
+  <si>
+    <t>CHG0324469</t>
+  </si>
+  <si>
+    <t>CHG0324470</t>
+  </si>
+  <si>
+    <t>CHG0324479</t>
+  </si>
+  <si>
+    <t>CHG0324480</t>
+  </si>
+  <si>
+    <t>CHG0324481</t>
+  </si>
+  <si>
+    <t>CHG0324969</t>
+  </si>
+  <si>
+    <t>CHG0324970</t>
+  </si>
+  <si>
+    <t>CHG0325045</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="0"/>
+  <fonts count="859">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +960,3639 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,8 +4605,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -196,11 +4662,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="865">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,7 +4685,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -219,6 +4695,868 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="73" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="87" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="92" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="95" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="98" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="100" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="103" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="106" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="108" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="111" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="114" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="118" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="122" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="125" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="129" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="132" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="137" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="141" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="144" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="150" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="154" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="158" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="161" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="164" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="170" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="174" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="178" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="182" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="186" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="190" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="196" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="199" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="202" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="206" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="209" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="213" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="216" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="219" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="223" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="227" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="230" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="234" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="236" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="239" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="243" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="248" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="252" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="257" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="260" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="263" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="266" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="269" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="271" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="274" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="277" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="281" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="284" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="289" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="292" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="296" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="300" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="303" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="306" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="310" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="314" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="317" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="321" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="326" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="329" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="333" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="336" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="342" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="345" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="348" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="353" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="356" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="362" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="365" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="369" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="372" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="376" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="379" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="383" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="386" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="391" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="394" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="398" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="401" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="404" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="408" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="411" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="415" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="418" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="421" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="425" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="429" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="432" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="435" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="439" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="443" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="446" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="451" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="454" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="458" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="461" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="465" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="469" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="472" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="475" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="479" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="483" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="486" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="490" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="494" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="497" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="502" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="505" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="509" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="512" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="517" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="520" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="525" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="528" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="534" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="537" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="542" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="545" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="549" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="552" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="556" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="559" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="563" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="566" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="570" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="573" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="590" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="594" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="609" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="612" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="615" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="635" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="638" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="641" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="645" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="648" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="651" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="655" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="659" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="662" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="666" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="670" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="673" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="676" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="679" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="683" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="686" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="688" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="691" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="694" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="696" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="699" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="702" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="704" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="707" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="710" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="715" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="718" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="722" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="725" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="729" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="732" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="740" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="743" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="754" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="757" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="760" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="769" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="772" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="775" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="811" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="814" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="817" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,27 +5851,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,234 +5893,88 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>15</v>
+      <c r="O1" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="48.75">
-      <c r="A2" s="4">
+    <row r="2" spans="1:15" ht="48.75">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>294</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="E2" t="s" s="823">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="48.75">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="48.75">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="48.75">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="48.75">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6" t="s">
-        <v>8</v>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>20</v>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>21</v>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>21</v>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>21</v>
+      <c r="L2" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>21</v>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>21</v>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>21</v>
+      <c r="O2" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
-      <formula1>"DEVELOP-SERVICE-MANAGER,DEVELOP-QA-SERVICE-MANAGER-AG"</formula1>
+  <autoFilter ref="A1:N2"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>"SERVICE-MGMT-TECHM-QA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"Passed,Failed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ServiceNowQAAutomation/SNOWQA/testdata/Change_Management_TestData.xlsx
+++ b/ServiceNowQAAutomation/SNOWQA/testdata/Change_Management_TestData.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="307">
   <si>
     <t>Serial No.</t>
   </si>
@@ -932,6 +932,42 @@
   </si>
   <si>
     <t>CHG0325045</t>
+  </si>
+  <si>
+    <t>CHG0415985</t>
+  </si>
+  <si>
+    <t>CHG0415987</t>
+  </si>
+  <si>
+    <t>CHG0415989</t>
+  </si>
+  <si>
+    <t>CHG0415990</t>
+  </si>
+  <si>
+    <t>CHG0415991</t>
+  </si>
+  <si>
+    <t>CHG0415992</t>
+  </si>
+  <si>
+    <t>CHG0415993</t>
+  </si>
+  <si>
+    <t>CHG0415994</t>
+  </si>
+  <si>
+    <t>CHG0415995</t>
+  </si>
+  <si>
+    <t>CHG0416001</t>
+  </si>
+  <si>
+    <t>CHG0416005</t>
+  </si>
+  <si>
+    <t>CHG0416007</t>
   </si>
 </sst>
 </file>
@@ -939,7 +975,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="859">
+  <fonts count="871">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4426,6 +4462,54 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -4677,7 +4761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="865">
+  <cellXfs count="877">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5516,6 +5600,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="817" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5928,7 +6024,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>

--- a/ServiceNowQAAutomation/SNOWQA/testdata/Change_Management_TestData.xlsx
+++ b/ServiceNowQAAutomation/SNOWQA/testdata/Change_Management_TestData.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="373">
   <si>
     <t>Serial No.</t>
   </si>
@@ -968,6 +968,204 @@
   </si>
   <si>
     <t>CHG0416007</t>
+  </si>
+  <si>
+    <t>CHG0416212</t>
+  </si>
+  <si>
+    <t>CHG0416213</t>
+  </si>
+  <si>
+    <t>CHG0416214</t>
+  </si>
+  <si>
+    <t>CHG0416215</t>
+  </si>
+  <si>
+    <t>CHG0416216</t>
+  </si>
+  <si>
+    <t>CHG0416217</t>
+  </si>
+  <si>
+    <t>CHG0416218</t>
+  </si>
+  <si>
+    <t>CHG0416223</t>
+  </si>
+  <si>
+    <t>CHG0416227</t>
+  </si>
+  <si>
+    <t>CHG0416247</t>
+  </si>
+  <si>
+    <t>CHG0416251</t>
+  </si>
+  <si>
+    <t>CHG0416259</t>
+  </si>
+  <si>
+    <t>CHG0416266</t>
+  </si>
+  <si>
+    <t>CHG0416283</t>
+  </si>
+  <si>
+    <t>CHG0416284</t>
+  </si>
+  <si>
+    <t>CHG0416285</t>
+  </si>
+  <si>
+    <t>CHG0416286</t>
+  </si>
+  <si>
+    <t>CHG0416287</t>
+  </si>
+  <si>
+    <t>CHG0416289</t>
+  </si>
+  <si>
+    <t>CHG0416297</t>
+  </si>
+  <si>
+    <t>CHG0416299</t>
+  </si>
+  <si>
+    <t>CHG0416300</t>
+  </si>
+  <si>
+    <t>CHG0416301</t>
+  </si>
+  <si>
+    <t>CHG0416302</t>
+  </si>
+  <si>
+    <t>CHG0416303</t>
+  </si>
+  <si>
+    <t>CHG0416304</t>
+  </si>
+  <si>
+    <t>CHG0416307</t>
+  </si>
+  <si>
+    <t>CHG0416308</t>
+  </si>
+  <si>
+    <t>CHG0416310</t>
+  </si>
+  <si>
+    <t>CHG0416311</t>
+  </si>
+  <si>
+    <t>CHG0416312</t>
+  </si>
+  <si>
+    <t>CHG0416314</t>
+  </si>
+  <si>
+    <t>CHG0416318</t>
+  </si>
+  <si>
+    <t>CHG0416319</t>
+  </si>
+  <si>
+    <t>CHG0416325</t>
+  </si>
+  <si>
+    <t>CHG0416326</t>
+  </si>
+  <si>
+    <t>CHG0416327</t>
+  </si>
+  <si>
+    <t>CHG0416328</t>
+  </si>
+  <si>
+    <t>CHG0416329</t>
+  </si>
+  <si>
+    <t>CHG0416335</t>
+  </si>
+  <si>
+    <t>CHG0416440</t>
+  </si>
+  <si>
+    <t>CHG0416444</t>
+  </si>
+  <si>
+    <t>CHG0416445</t>
+  </si>
+  <si>
+    <t>CHG0416446</t>
+  </si>
+  <si>
+    <t>CHG0416447</t>
+  </si>
+  <si>
+    <t>CHG0416468</t>
+  </si>
+  <si>
+    <t>CHG0416471</t>
+  </si>
+  <si>
+    <t>CHG0416472</t>
+  </si>
+  <si>
+    <t>CHG0416473</t>
+  </si>
+  <si>
+    <t>CHG0416474</t>
+  </si>
+  <si>
+    <t>CHG0416475</t>
+  </si>
+  <si>
+    <t>CHG0416476</t>
+  </si>
+  <si>
+    <t>CHG0416489</t>
+  </si>
+  <si>
+    <t>CHG0416490</t>
+  </si>
+  <si>
+    <t>CHG0416491</t>
+  </si>
+  <si>
+    <t>CHG0416492</t>
+  </si>
+  <si>
+    <t>CHG0416493</t>
+  </si>
+  <si>
+    <t>CHG0416494</t>
+  </si>
+  <si>
+    <t>CHG0416495</t>
+  </si>
+  <si>
+    <t>CHG0416505</t>
+  </si>
+  <si>
+    <t>CHG0416514</t>
+  </si>
+  <si>
+    <t>CHG0416515</t>
+  </si>
+  <si>
+    <t>CHG0416516</t>
+  </si>
+  <si>
+    <t>CHG0416517</t>
+  </si>
+  <si>
+    <t>CHG0416518</t>
+  </si>
+  <si>
+    <t>CHG0416519</t>
   </si>
 </sst>
 </file>
@@ -975,7 +1173,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="871">
+  <fonts count="937">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4462,6 +4660,270 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -4761,7 +5223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="877">
+  <cellXfs count="943">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5600,6 +6062,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="817" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6024,7 +6552,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
